--- a/biology/Botanique/Thapsia/Thapsia.xlsx
+++ b/biology/Botanique/Thapsia/Thapsia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thapsia, la Thapsie, est un genre de plantes à fleurs de la famille des Apiacées, qui comprend vingt espèces originaires de la région méditerranéenne. Certaines espèces ont eu ou ont encore des usages en médecine traditionnelle. Parmi elles, Thapsia garganica contient une molécule, la thapsigargine, qui bien que cytotoxique et promotrice de tumeurs, a attiré l'attention pour ses potentialités en matière de lutte contre certains cancers, et peut-être contre la Covid-19 selon une étude publiée en décembre 2021 par des chercheurs de l'université de Nottingham[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thapsia, la Thapsie, est un genre de plantes à fleurs de la famille des Apiacées, qui comprend vingt espèces originaires de la région méditerranéenne. Certaines espèces ont eu ou ont encore des usages en médecine traditionnelle. Parmi elles, Thapsia garganica contient une molécule, la thapsigargine, qui bien que cytotoxique et promotrice de tumeurs, a attiré l'attention pour ses potentialités en matière de lutte contre certains cancers, et peut-être contre la Covid-19 selon une étude publiée en décembre 2021 par des chercheurs de l'université de Nottingham.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre est décrit et nommé en 1753 par le naturaliste suédois Carl von Linné, dans son ouvrage fondateur de la nomenclature botanique moderne (la) Species Plantarum, vol. 1 (lire en ligne), p. 261[3]. Le nom vient du grec ancien θαψία (thapsía), de Thapsos, en Sicile[4].
-Selon Plants of the World online (POWO)                (9 février 2021)[3], Thapsia L. a pour synonymes :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre est décrit et nommé en 1753 par le naturaliste suédois Carl von Linné, dans son ouvrage fondateur de la nomenclature botanique moderne (la) Species Plantarum, vol. 1 (lire en ligne), p. 261. Le nom vient du grec ancien θαψία (thapsía), de Thapsos, en Sicile.
+Selon Plants of the World online (POWO)                (9 février 2021), Thapsia L. a pour synonymes :
 Distichoselinum F.García Mart. &amp; Silvestre
 Elaeoselinum W.D.J.Koch ex DC.
 Guillonea Coss.
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Thapsia nitida.
@@ -585,8 +601,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Noms corrects
-Selon Plants of the World online (POWO)                (9 février 2021)[3], ce genre comprend exactement 20 espèces connues.
+          <t>Noms corrects</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (9 février 2021), ce genre comprend exactement 20 espèces connues.
 Thapsia asclepium L.
 Thapsia cinerea A.Pujadas
 Thapsia eliasii (Sennen &amp; Pau) Wojew., Banasiak, Reduron &amp; Spalik
@@ -607,8 +628,43 @@
 Thapsia thapsioides (Desf.) Simonsen, Rønsted, Weitzel &amp; Spalik
 Thapsia transtagana Brot.
 Thapsia villosa L.
-Noms incorrects
-Les noms suivants sont tous synonymes, soit des espèces citées plus haut, soit d'espèces déplacées dans d'autres genres[5].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Thapsia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thapsia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Noms incorrects</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les noms suivants sont tous synonymes, soit des espèces citées plus haut, soit d'espèces déplacées dans d'autres genres.
 Thapsia altissima Mill.
 Thapsia annua (A.Chev.) M.Hiroe
 Thapsia apulia Mill.
